--- a/doc/HDF.PInvoke.xlsx
+++ b/doc/HDF.PInvoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23955" windowHeight="13110"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23955" windowHeight="13110" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="452">
   <si>
     <t>Prototype</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>hid_t H5Eget_current_stack(void)</t>
-  </si>
-  <si>
-    <t>const char * H5Eget_major(H5E_major_t n)</t>
-  </si>
-  <si>
-    <t>char * H5Eget_minor(H5E_minor_t n)</t>
   </si>
   <si>
     <t>ssize_t H5Eget_msg(hid_t mesg_id, H5E_type_t* mesg_type, char* mesg, size_t size)</t>
@@ -1572,111 +1566,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2131,6 +2020,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2167,6 +2077,27 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2266,6 +2197,26 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2304,6 +2255,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2323,6 +2295,28 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2494,7 +2488,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
@@ -2617,7 +2611,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -2788,11 +2782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187215872"/>
-        <c:axId val="187217408"/>
+        <c:axId val="186368000"/>
+        <c:axId val="186369536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187215872"/>
+        <c:axId val="186368000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187217408"/>
+        <c:crossAx val="186369536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2809,7 +2803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187217408"/>
+        <c:axId val="186369536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187215872"/>
+        <c:crossAx val="186368000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,38 +2894,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B12" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="8"/>
-    <tableColumn id="2" name="Effort" dataDxfId="9"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="64"/>
+    <tableColumn id="2" name="Effort" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B160" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:B160" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A1:B160"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="31"/>
-    <tableColumn id="2" name="Effort" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B6" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A1:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="26"/>
-    <tableColumn id="2" name="Effort" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:B29" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:B29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Prototype" dataDxfId="21"/>
     <tableColumn id="2" name="Effort" dataDxfId="20"/>
@@ -2940,9 +2912,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B66" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:B66"/>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:B6" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Prototype" dataDxfId="16"/>
     <tableColumn id="2" name="Effort" dataDxfId="15"/>
@@ -2951,9 +2923,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B5" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:B5"/>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:B29" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:B29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Prototype" dataDxfId="11"/>
     <tableColumn id="2" name="Effort" dataDxfId="10"/>
@@ -2962,64 +2934,64 @@
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A1:B66" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:B66"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Prototype" dataDxfId="6"/>
+    <tableColumn id="2" name="Effort" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:B5" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Prototype" dataDxfId="1"/>
+    <tableColumn id="2" name="Effort" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B28" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B28" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:B28"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="6"/>
-    <tableColumn id="2" name="Effort" dataDxfId="7"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="60"/>
+    <tableColumn id="2" name="Effort" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B21" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B21" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="A1:B21"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="4"/>
-    <tableColumn id="2" name="Effort" dataDxfId="5"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="55"/>
+    <tableColumn id="2" name="Effort" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B22" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B20" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A1:B20"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="56"/>
-    <tableColumn id="2" name="Effort" dataDxfId="55"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="50"/>
+    <tableColumn id="2" name="Effort" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:B25" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:B25" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A1:B25"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="2"/>
-    <tableColumn id="2" name="Effort" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B9" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A1:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="0"/>
-    <tableColumn id="2" name="Effort" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:B20" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:B20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Prototype" dataDxfId="45"/>
     <tableColumn id="2" name="Effort" dataDxfId="44"/>
@@ -3028,11 +3000,33 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:B9" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Prototype" dataDxfId="40"/>
+    <tableColumn id="2" name="Effort" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:B20" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="A1:B20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Prototype" dataDxfId="35"/>
+    <tableColumn id="2" name="Effort" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:B23" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:B23" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:B23"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="40"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="30"/>
     <tableColumn id="2" name="Effort"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3040,11 +3034,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:B15" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:B15" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Prototype" dataDxfId="36"/>
-    <tableColumn id="2" name="Effort" dataDxfId="35"/>
+    <tableColumn id="1" name="Prototype" dataDxfId="26"/>
+    <tableColumn id="2" name="Effort" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3339,26 +3333,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="6">
         <v>11</v>
@@ -3372,7 +3366,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="6">
         <v>19</v>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="6">
         <v>16</v>
@@ -3400,13 +3394,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -3414,7 +3408,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="6">
         <v>21</v>
@@ -3428,7 +3422,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
@@ -3442,7 +3436,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -3456,7 +3450,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -3470,7 +3464,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -3484,7 +3478,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="6">
         <v>119</v>
@@ -3498,7 +3492,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
@@ -3512,7 +3506,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="6">
         <v>25</v>
@@ -3540,7 +3534,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="6">
         <v>45</v>
@@ -3554,7 +3548,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -3568,15 +3562,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B16)</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C16)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D16)</f>
@@ -3593,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3613,7 +3607,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -3621,7 +3615,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -3629,7 +3623,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -3637,7 +3631,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -3645,7 +3639,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>41</v>
@@ -3653,7 +3647,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>41</v>
@@ -3661,7 +3655,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
@@ -3669,7 +3663,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -3677,7 +3671,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -3685,7 +3679,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -3693,7 +3687,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -3701,7 +3695,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>41</v>
@@ -3709,7 +3703,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>42</v>
@@ -3717,7 +3711,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>42</v>
@@ -3755,7 +3749,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -3763,7 +3757,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -3771,7 +3765,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -3779,7 +3773,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -3787,7 +3781,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3795,7 +3789,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -3803,7 +3797,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -3811,7 +3805,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>42</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -3827,7 +3821,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -3835,7 +3829,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -3843,7 +3837,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -3851,7 +3845,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -3859,7 +3853,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
@@ -3867,7 +3861,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>41</v>
@@ -3875,7 +3869,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -3883,7 +3877,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -3891,7 +3885,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>13</v>
@@ -3899,7 +3893,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -3915,7 +3909,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>41</v>
@@ -3923,7 +3917,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
@@ -3931,7 +3925,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
@@ -3939,7 +3933,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -3947,7 +3941,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -3955,7 +3949,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -3963,7 +3957,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -3971,7 +3965,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -3979,7 +3973,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -3987,7 +3981,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -4003,7 +3997,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -4011,7 +4005,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>13</v>
@@ -4019,7 +4013,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>13</v>
@@ -4027,7 +4021,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>42</v>
@@ -4035,7 +4029,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>13</v>
@@ -4043,7 +4037,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>13</v>
@@ -4051,7 +4045,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -4059,7 +4053,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>
@@ -4067,7 +4061,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>13</v>
@@ -4075,7 +4069,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>13</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>13</v>
@@ -4091,7 +4085,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>13</v>
@@ -4099,7 +4093,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>13</v>
@@ -4107,7 +4101,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>42</v>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>41</v>
@@ -4123,7 +4117,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>13</v>
@@ -4131,7 +4125,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>42</v>
@@ -4139,7 +4133,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>41</v>
@@ -4147,7 +4141,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>13</v>
@@ -4155,7 +4149,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>13</v>
@@ -4163,7 +4157,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>41</v>
@@ -4171,7 +4165,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>13</v>
@@ -4179,7 +4173,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>13</v>
@@ -4187,7 +4181,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>13</v>
@@ -4195,7 +4189,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>13</v>
@@ -4203,7 +4197,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>41</v>
@@ -4211,7 +4205,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>13</v>
@@ -4219,7 +4213,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>13</v>
@@ -4227,7 +4221,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>13</v>
@@ -4235,7 +4229,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>42</v>
@@ -4243,7 +4237,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>41</v>
@@ -4251,7 +4245,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>13</v>
@@ -4259,7 +4253,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>41</v>
@@ -4267,7 +4261,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>41</v>
@@ -4275,7 +4269,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>13</v>
@@ -4283,7 +4277,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>13</v>
@@ -4291,7 +4285,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>13</v>
@@ -4299,7 +4293,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>13</v>
@@ -4307,7 +4301,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>13</v>
@@ -4315,7 +4309,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>13</v>
@@ -4323,7 +4317,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>13</v>
@@ -4331,7 +4325,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>13</v>
@@ -4339,7 +4333,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>13</v>
@@ -4347,7 +4341,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>13</v>
@@ -4355,7 +4349,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>13</v>
@@ -4363,7 +4357,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>13</v>
@@ -4371,7 +4365,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>42</v>
@@ -4379,7 +4373,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>13</v>
@@ -4387,7 +4381,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>13</v>
@@ -4395,7 +4389,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>42</v>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>42</v>
@@ -4411,7 +4405,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>13</v>
@@ -4419,7 +4413,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>42</v>
@@ -4427,7 +4421,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>41</v>
@@ -4435,7 +4429,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>42</v>
@@ -4443,7 +4437,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>13</v>
@@ -4451,7 +4445,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>41</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>13</v>
@@ -4467,7 +4461,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>13</v>
@@ -4475,7 +4469,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>13</v>
@@ -4483,7 +4477,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>13</v>
@@ -4491,7 +4485,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>13</v>
@@ -4499,7 +4493,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>13</v>
@@ -4507,7 +4501,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>13</v>
@@ -4515,7 +4509,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>13</v>
@@ -4523,7 +4517,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>41</v>
@@ -4531,7 +4525,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>13</v>
@@ -4539,7 +4533,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>13</v>
@@ -4547,7 +4541,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>13</v>
@@ -4555,7 +4549,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>13</v>
@@ -4563,7 +4557,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>13</v>
@@ -4571,7 +4565,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>13</v>
@@ -4579,7 +4573,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>13</v>
@@ -4587,7 +4581,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>13</v>
@@ -4595,7 +4589,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>41</v>
@@ -4603,7 +4597,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>13</v>
@@ -4611,7 +4605,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>42</v>
@@ -4619,7 +4613,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>13</v>
@@ -4627,7 +4621,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>13</v>
@@ -4635,7 +4629,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>13</v>
@@ -4643,7 +4637,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>13</v>
@@ -4651,7 +4645,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>13</v>
@@ -4659,7 +4653,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>13</v>
@@ -4667,7 +4661,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>13</v>
@@ -4675,7 +4669,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>13</v>
@@ -4683,7 +4677,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>13</v>
@@ -4691,7 +4685,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>13</v>
@@ -4699,7 +4693,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>42</v>
@@ -4707,7 +4701,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>13</v>
@@ -4715,7 +4709,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>13</v>
@@ -4723,7 +4717,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>41</v>
@@ -4731,7 +4725,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>13</v>
@@ -4739,7 +4733,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>42</v>
@@ -4747,7 +4741,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>41</v>
@@ -4755,7 +4749,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>13</v>
@@ -4763,7 +4757,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>41</v>
@@ -4771,7 +4765,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>42</v>
@@ -4779,7 +4773,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>13</v>
@@ -4787,7 +4781,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>13</v>
@@ -4795,7 +4789,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>13</v>
@@ -4803,7 +4797,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>13</v>
@@ -4811,7 +4805,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>41</v>
@@ -4819,7 +4813,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>41</v>
@@ -4827,7 +4821,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>13</v>
@@ -4835,7 +4829,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>13</v>
@@ -4843,7 +4837,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>13</v>
@@ -4851,7 +4845,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>42</v>
@@ -4859,7 +4853,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>41</v>
@@ -4867,7 +4861,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>13</v>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>41</v>
@@ -4883,7 +4877,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>13</v>
@@ -4891,7 +4885,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>13</v>
@@ -4899,7 +4893,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>13</v>
@@ -4907,7 +4901,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>13</v>
@@ -4915,7 +4909,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>41</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>13</v>
@@ -4931,7 +4925,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>13</v>
@@ -4939,7 +4933,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>13</v>
@@ -4947,7 +4941,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>13</v>
@@ -4955,7 +4949,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>13</v>
@@ -4963,7 +4957,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>13</v>
@@ -4971,7 +4965,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>13</v>
@@ -4979,7 +4973,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>13</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>13</v>
@@ -4995,7 +4989,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>42</v>
@@ -5003,7 +4997,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>13</v>
@@ -5011,7 +5005,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>42</v>
@@ -5019,7 +5013,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>41</v>
@@ -5102,7 +5096,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -5110,7 +5104,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -5145,7 +5139,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -5153,7 +5147,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>41</v>
@@ -5161,7 +5155,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>41</v>
@@ -5169,7 +5163,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -5177,7 +5171,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>41</v>
@@ -5215,7 +5209,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -5223,7 +5217,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -5231,7 +5225,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>41</v>
@@ -5239,7 +5233,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -5247,7 +5241,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -5255,7 +5249,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -5263,7 +5257,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -5271,7 +5265,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -5279,7 +5273,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -5287,7 +5281,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -5295,7 +5289,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -5303,7 +5297,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -5311,7 +5305,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -5319,7 +5313,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
@@ -5327,7 +5321,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
@@ -5335,7 +5329,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -5343,7 +5337,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -5351,7 +5345,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>13</v>
@@ -5359,7 +5353,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -5367,7 +5361,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -5375,7 +5369,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -5383,7 +5377,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
@@ -5391,7 +5385,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>41</v>
@@ -5399,7 +5393,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>41</v>
@@ -5407,7 +5401,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -5415,7 +5409,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -5423,7 +5417,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -5431,7 +5425,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -5469,7 +5463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -5477,7 +5471,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -5485,7 +5479,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -5493,7 +5487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -5501,7 +5495,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -5509,7 +5503,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -5517,7 +5511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -5525,7 +5519,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -5533,7 +5527,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -5541,7 +5535,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -5549,7 +5543,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -5557,7 +5551,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -5565,7 +5559,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -5573,7 +5567,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
@@ -5581,7 +5575,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
@@ -5589,7 +5583,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -5597,7 +5591,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -5605,7 +5599,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>41</v>
@@ -5613,7 +5607,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -5621,7 +5615,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -5629,7 +5623,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -5637,7 +5631,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
@@ -5645,7 +5639,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>41</v>
@@ -5653,7 +5647,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -5661,7 +5655,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -5669,7 +5663,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>41</v>
@@ -5677,7 +5671,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>41</v>
@@ -5685,7 +5679,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -5693,7 +5687,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -5701,7 +5695,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -5709,7 +5703,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -5717,7 +5711,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -5725,7 +5719,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>41</v>
@@ -5733,7 +5727,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>13</v>
@@ -5741,7 +5735,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>13</v>
@@ -5749,7 +5743,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>41</v>
@@ -5757,7 +5751,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>41</v>
@@ -5765,7 +5759,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
@@ -5773,7 +5767,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>
@@ -5781,7 +5775,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
@@ -5789,7 +5783,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>13</v>
@@ -5797,7 +5791,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>13</v>
@@ -5805,7 +5799,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>13</v>
@@ -5813,7 +5807,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>13</v>
@@ -5821,7 +5815,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>13</v>
@@ -5829,7 +5823,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>13</v>
@@ -5837,7 +5831,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>13</v>
@@ -5845,7 +5839,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>13</v>
@@ -5853,7 +5847,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>13</v>
@@ -5861,7 +5855,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>41</v>
@@ -5869,7 +5863,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>13</v>
@@ -5877,7 +5871,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>13</v>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>13</v>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>41</v>
@@ -5901,7 +5895,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>41</v>
@@ -5909,7 +5903,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>13</v>
@@ -5917,7 +5911,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>41</v>
@@ -5925,7 +5919,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>41</v>
@@ -5933,7 +5927,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>13</v>
@@ -5941,7 +5935,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>41</v>
@@ -5949,7 +5943,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>13</v>
@@ -5957,7 +5951,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>41</v>
@@ -5965,7 +5959,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>13</v>
@@ -5973,7 +5967,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>41</v>
@@ -5981,7 +5975,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>13</v>
@@ -6022,7 +6016,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -6030,7 +6024,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>41</v>
@@ -6038,7 +6032,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
@@ -6046,7 +6040,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -6184,7 +6178,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6430,7 +6424,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6620,10 +6614,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,7 +6719,7 @@
         <v>73</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,39 +6727,39 @@
         <v>74</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>83</v>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>83</v>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6775,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6789,22 +6783,6 @@
         <v>80</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6840,7 +6818,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -6848,7 +6826,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -6856,7 +6834,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -6864,7 +6842,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -6872,7 +6850,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -6880,7 +6858,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -6888,7 +6866,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -6896,7 +6874,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -6904,7 +6882,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -6912,7 +6890,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>41</v>
@@ -6920,7 +6898,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -6928,7 +6906,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -6936,7 +6914,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>13</v>
@@ -6944,7 +6922,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
@@ -6952,7 +6930,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
@@ -6960,7 +6938,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -6968,7 +6946,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -6976,7 +6954,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>13</v>
@@ -6984,7 +6962,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -6992,7 +6970,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -7000,7 +6978,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -7008,7 +6986,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
@@ -7016,7 +6994,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>41</v>
@@ -7024,7 +7002,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -7062,7 +7040,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -7070,7 +7048,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -7078,7 +7056,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -7086,7 +7064,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -7094,7 +7072,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>41</v>
@@ -7102,7 +7080,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>41</v>
@@ -7110,7 +7088,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
@@ -7118,7 +7096,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -7156,7 +7134,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -7164,7 +7142,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -7172,7 +7150,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>41</v>
@@ -7180,7 +7158,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>41</v>
@@ -7188,7 +7166,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -7196,7 +7174,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -7204,7 +7182,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -7212,7 +7190,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -7220,7 +7198,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>41</v>
@@ -7228,7 +7206,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -7236,7 +7214,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -7244,7 +7222,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -7252,7 +7230,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -7260,7 +7238,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>41</v>
@@ -7268,7 +7246,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>41</v>
@@ -7276,7 +7254,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>41</v>
@@ -7284,7 +7262,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>41</v>
@@ -7292,7 +7270,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>41</v>
@@ -7300,7 +7278,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -7338,7 +7316,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -7346,7 +7324,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -7354,7 +7332,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -7362,7 +7340,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -7370,7 +7348,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -7378,7 +7356,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -7386,7 +7364,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -7394,7 +7372,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -7402,7 +7380,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -7410,7 +7388,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -7418,7 +7396,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -7426,7 +7404,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -7434,7 +7412,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -7442,7 +7420,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -7450,7 +7428,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -7458,7 +7436,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -7466,7 +7444,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -7474,7 +7452,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -7482,7 +7460,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -7490,7 +7468,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -7498,7 +7476,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -7506,7 +7484,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>

--- a/doc/HDF.PInvoke.xlsx
+++ b/doc/HDF.PInvoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23955" windowHeight="13110" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23955" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -2782,11 +2782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186368000"/>
-        <c:axId val="186369536"/>
+        <c:axId val="187219968"/>
+        <c:axId val="187221504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186368000"/>
+        <c:axId val="187219968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186369536"/>
+        <c:crossAx val="187221504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2803,7 +2803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186369536"/>
+        <c:axId val="187221504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186368000"/>
+        <c:crossAx val="187219968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
